--- a/data/Winter.xlsx
+++ b/data/Winter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\discord-bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33592E3C-42FA-43FC-877B-2E72C1E4EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D64F8-4029-4E35-A215-DDA73E8B9592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{0B996335-C817-49DE-822F-811D68265D31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B996335-C817-49DE-822F-811D68265D31}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>d20</t>
   </si>
@@ -47,76 +47,79 @@
     <t>Эффекты</t>
   </si>
   <si>
-    <t>Арктический шторм</t>
-  </si>
-  <si>
     <t>Экстремальный холод, сильный снег, сильный ветер</t>
   </si>
   <si>
-    <t>Метель</t>
-  </si>
-  <si>
     <t>Экстремальный холод, сильный снег, ветрено</t>
   </si>
   <si>
-    <t>Снег</t>
-  </si>
-  <si>
     <t>Холодно, сильный снег</t>
   </si>
   <si>
     <t>Холодно, лёгкий снег</t>
   </si>
   <si>
-    <t>Похолодание</t>
-  </si>
-  <si>
     <t>Холодно, ветрено</t>
   </si>
   <si>
     <t>Холодно</t>
   </si>
   <si>
-    <t>Ледяной дождь</t>
-  </si>
-  <si>
     <t>Гололёд, ветрено</t>
   </si>
   <si>
-    <t>Ясно</t>
-  </si>
-  <si>
     <t>Без изменений</t>
   </si>
   <si>
-    <t>Переменная облачность</t>
-  </si>
-  <si>
     <t>Лёгкий туман</t>
   </si>
   <si>
-    <t>Пасмурно</t>
-  </si>
-  <si>
     <t>Сильный туман</t>
   </si>
   <si>
-    <t>Моросящий дождь</t>
-  </si>
-  <si>
     <t>Лёгкий дождь</t>
   </si>
   <si>
-    <t>Дождь</t>
-  </si>
-  <si>
     <t>Сильный дождь</t>
   </si>
   <si>
-    <t>Снежная гроза</t>
-  </si>
-  <si>
     <t>Холодно, сильный снег, молнии, сильный ветер</t>
+  </si>
+  <si>
+    <t>🌬️Арктический шторм</t>
+  </si>
+  <si>
+    <t>🌨️Метель</t>
+  </si>
+  <si>
+    <t>❄️Снег</t>
+  </si>
+  <si>
+    <t>🥶Похолодание</t>
+  </si>
+  <si>
+    <t>🌨️Ледяной дождь</t>
+  </si>
+  <si>
+    <t>☀️Ясно</t>
+  </si>
+  <si>
+    <t>🌤️Переменная облачность</t>
+  </si>
+  <si>
+    <t>☁️Пасмурно</t>
+  </si>
+  <si>
+    <t>🌦️Моросящий дождь</t>
+  </si>
+  <si>
+    <t>🌧️Дождь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	⛈️Снежная гроза</t>
+  </si>
+  <si>
+    <t>🌫️Пасмурно</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -539,10 +542,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -550,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -561,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -572,10 +575,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -583,10 +586,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -594,21 +597,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -616,10 +619,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -627,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -638,10 +641,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -649,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -660,10 +663,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -671,10 +674,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -682,10 +685,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -693,10 +696,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -704,10 +707,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -715,10 +718,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -726,10 +729,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -737,10 +740,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
